--- a/AW_scraper/files/project.xlsx
+++ b/AW_scraper/files/project.xlsx
@@ -493,7 +493,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -502,12 +502,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sachsen 2019 - 2024</t>
+          <t>Sachsen 2024 - 2029</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/119</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/157</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -521,7 +521,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -530,12 +530,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Brandenburg Wahl 2024</t>
+          <t>Brandenburg 2024 - 2029</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/154</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/158</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -549,7 +549,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -558,12 +558,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Thüringen 2019 - 2024</t>
+          <t>Thüringen 2024 - 2029</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/121</t>
+          <t>https://www.abgeordnetenwatch.de/api/v2/parliament-periods/156</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
